--- a/Arbeitsschritte.xlsx
+++ b/Arbeitsschritte.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BE2EDC0A-A692-43BF-9F96-9989D1224122}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D97D0461-3AF4-4000-809F-84DD3D1964AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Arbeitsschritt</t>
   </si>
@@ -167,6 +167,21 @@
   </si>
   <si>
     <t>Klasse=&gt;Schueler (Klassensprecher)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>A/D</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -198,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -206,11 +221,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -224,6 +307,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,17 +600,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
@@ -531,17 +626,23 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>5</v>
@@ -551,14 +652,21 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="12" t="s">
         <v>12</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>3</v>
@@ -568,6 +676,12 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
@@ -579,16 +693,18 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
@@ -606,10 +722,14 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
@@ -631,6 +751,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="7"/>
       <c r="K7" t="s">
         <v>23</v>
       </c>
@@ -648,17 +774,23 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="12" t="s">
         <v>16</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="K8" t="s">
         <v>24</v>
@@ -674,10 +806,14 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="7"/>
       <c r="N9" t="s">
         <v>26</v>
       </c>
@@ -685,130 +821,227 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="7"/>
+    </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="B11" s="12">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="E16" s="12"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="E24" s="12"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="12">
         <v>6</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+      <c r="E26" s="12"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Arbeitsschritte.xlsx
+++ b/Arbeitsschritte.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D97D0461-3AF4-4000-809F-84DD3D1964AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{97442A02-CF0D-40BE-B475-0A940B0E8B06}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>Arbeitsschritt</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,9 +705,13 @@
       <c r="D5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
@@ -843,7 +850,9 @@
         <v>12</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -851,7 +860,9 @@
       <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="7" t="s">
         <v>53</v>
@@ -863,7 +874,9 @@
       <c r="D13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="7" t="s">
         <v>53</v>
@@ -876,10 +889,12 @@
         <v>48</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
@@ -887,9 +902,13 @@
       <c r="D15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
@@ -897,7 +916,9 @@
       <c r="D16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="7" t="s">
         <v>53</v>
@@ -921,9 +942,13 @@
       <c r="D18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F18" s="10"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
@@ -931,9 +956,13 @@
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
@@ -941,7 +970,9 @@
       <c r="D20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="7" t="s">
         <v>53</v>
@@ -957,7 +988,9 @@
         <v>16</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
@@ -965,9 +998,13 @@
       <c r="D22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
@@ -975,9 +1012,13 @@
       <c r="D23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
@@ -985,9 +1026,13 @@
       <c r="D24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F24" s="10"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
@@ -1007,7 +1052,9 @@
       <c r="D26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="7" t="s">
         <v>53</v>
@@ -1019,7 +1066,9 @@
       <c r="D27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="7" t="s">
         <v>53</v>
@@ -1031,9 +1080,13 @@
       <c r="D28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F28" s="10"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>

--- a/Arbeitsschritte.xlsx
+++ b/Arbeitsschritte.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{97442A02-CF0D-40BE-B475-0A940B0E8B06}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{17450804-5185-4B39-8BE3-162F140DBCD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>Arbeitsschritt</t>
   </si>
@@ -73,9 +73,6 @@
     <t>j/n</t>
   </si>
   <si>
-    <t xml:space="preserve"> = wobei die Klassen Person und Mitarbeiter noch abstract gemacht werden müssen</t>
-  </si>
-  <si>
     <t>Generalisierung</t>
   </si>
   <si>
@@ -136,12 +133,6 @@
     <t>Klasse 1:1-36 Schueler (ist Teil von)</t>
   </si>
   <si>
-    <t>Lehrer 1:0-2 Klasse (Kv von)</t>
-  </si>
-  <si>
-    <t>Fach 0-1:0-n Klasse (lernt)</t>
-  </si>
-  <si>
     <t>Lehrer 0-n:1-n Fach (unterrichtet)</t>
   </si>
   <si>
@@ -184,7 +175,13 @@
     <t>A</t>
   </si>
   <si>
-    <t>n</t>
+    <t>Lehrer 1:0-1 Klasse (Kv von)</t>
+  </si>
+  <si>
+    <t>Klasse 0-1:1 Raum (Stammklasse)</t>
+  </si>
+  <si>
+    <t>Fach n:nKlasse (lernt)</t>
   </si>
 </sst>
 </file>
@@ -208,12 +205,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -296,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -323,6 +332,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -605,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +644,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -642,10 +661,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>5</v>
@@ -655,21 +674,21 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="12">
+      <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>50</v>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>3</v>
@@ -696,21 +715,21 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="7" t="s">
-        <v>50</v>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>8</v>
@@ -722,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5">
         <v>4</v>
@@ -731,7 +750,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="12"/>
@@ -742,7 +761,7 @@
       </c>
       <c r="I6" s="3"/>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6">
         <v>15</v>
@@ -751,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -765,48 +784,48 @@
       <c r="F7" s="10"/>
       <c r="G7" s="7"/>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
+      <c r="E8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O8">
         <v>6</v>
@@ -814,15 +833,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
-      <c r="C9" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="12"/>
       <c r="F9" s="10"/>
       <c r="G9" s="7"/>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9">
         <v>7</v>
@@ -837,91 +854,91 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="B11" s="14">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="7" t="s">
-        <v>51</v>
+      <c r="E11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="E15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="7" t="s">
-        <v>53</v>
+      <c r="E16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -933,159 +950,165 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
+      <c r="B18" s="17">
         <v>5</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="7" t="s">
+      <c r="E19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
+      <c r="E23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
+      <c r="E24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="17">
+        <v>6</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
+      <c r="D26" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
+      <c r="E26" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
-        <v>6</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="E27" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="7" t="s">
-        <v>53</v>
+      <c r="E28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
